--- a/jpcore-r4/feature/swg1-capablitystatement/observations-summary.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Profile</t>
   </si>
@@ -114,6 +114,33 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PhysicalExamCode_VS (required)</t>
+  </si>
+  <si>
+    <t>jp-observation-radiology-findings</t>
+  </si>
+  <si>
+    <t>JP Core Observation Radiology Findings Profile</t>
+  </si>
+  <si>
+    <t>null#18782-3</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>jp-observation-radiology-impression</t>
+  </si>
+  <si>
+    <t>JP Core Observation Radiology Impression Profile</t>
+  </si>
+  <si>
+    <t>null#19005-8</t>
   </si>
   <si>
     <t>jp-observation-socialhistory</t>
@@ -271,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -460,22 +487,22 @@
         <v>35</v>
       </c>
       <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -489,36 +516,106 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="H7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s" s="2">
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="H8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>14</v>
       </c>
     </row>
